--- a/data/georgia_census/kakheti/gurjaani/population_total.xlsx
+++ b/data/georgia_census/kakheti/gurjaani/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F58AC4E7-DB5F-4556-8E08-450897003D59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE47D316-7215-4E9A-80D5-EA00E27553A1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1346BB46-B656-49FB-844D-BC87C05C8CC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED0ED595-BF9C-4EDE-988E-D1778D4D6D1B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D07D5B9-057E-4157-99B6-C882417AF3D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DB03526-CAB4-4B39-8E48-B9EC8B8239AB}"/>
 </file>